--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2294.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2294.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.719115298296285</v>
+        <v>1.171993374824524</v>
       </c>
       <c r="B1">
-        <v>3.541328038432506</v>
+        <v>2.330319881439209</v>
       </c>
       <c r="C1">
-        <v>3.146327564355014</v>
+        <v>3.287084817886353</v>
       </c>
       <c r="D1">
-        <v>3.456602916361065</v>
+        <v>1.482364773750305</v>
       </c>
       <c r="E1">
-        <v>1.90460777047806</v>
+        <v>1.184820413589478</v>
       </c>
     </row>
   </sheetData>
